--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>455044.2190777469</v>
+        <v>454450.3523665072</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="D11" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F11" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.23475461124628</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>110.6904970612605</v>
       </c>
       <c r="W11" t="n">
-        <v>11.30283095546745</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.047422663360209</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W12" t="n">
-        <v>18.8384664162339</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754423</v>
+        <v>9.884882276754368</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177301</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437246</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498572</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788833</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11.30283095546741</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F14" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="H14" t="n">
         <v>104.630197212101</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>11.30283095546732</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
     </row>
     <row r="15">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.047422663360152</v>
+        <v>6.04742266336018</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623384</v>
+        <v>18.83846641623387</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754366</v>
+        <v>9.884882276754396</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177298</v>
       </c>
       <c r="V16" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437243</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498569</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788804</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>48.19739826034913</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487711</v>
+        <v>39.17870230487706</v>
       </c>
       <c r="E17" t="n">
         <v>60.92083987478264</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542847552</v>
+        <v>3.692458542846509</v>
       </c>
       <c r="W17" t="n">
         <v>28.99255802080341</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.18608130266745</v>
+        <v>60.18608130266739</v>
       </c>
       <c r="C23" t="n">
-        <v>48.19739826034919</v>
+        <v>48.19739826034913</v>
       </c>
       <c r="D23" t="n">
-        <v>39.17870230487716</v>
+        <v>39.17870230487711</v>
       </c>
       <c r="E23" t="n">
-        <v>60.9208398747827</v>
+        <v>60.92083987478264</v>
       </c>
       <c r="F23" t="n">
-        <v>80.09265596275986</v>
+        <v>80.09265596275981</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630237</v>
+        <v>81.55736574630231</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.692458542846566</v>
+        <v>3.692458542846509</v>
       </c>
       <c r="W23" t="n">
-        <v>28.99255802080347</v>
+        <v>28.99255802080341</v>
       </c>
       <c r="X23" t="n">
-        <v>48.29281625355009</v>
+        <v>48.29281625355003</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.68941404974885</v>
+        <v>59.68941404974879</v>
       </c>
     </row>
     <row r="24">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970385</v>
+        <v>10.93598234970386</v>
       </c>
       <c r="U26" t="n">
         <v>43.17073696095014</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.9748428097537</v>
+        <v>180.9748428097536</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674354</v>
+        <v>168.9861597674353</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119634</v>
+        <v>159.9674638119633</v>
       </c>
       <c r="E29" t="n">
         <v>181.7096013818689</v>
       </c>
       <c r="F29" t="n">
-        <v>200.8814174698461</v>
+        <v>200.881417469846</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533886</v>
+        <v>202.3461272533885</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618049</v>
+        <v>115.5661795618048</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970391</v>
+        <v>10.93598234970386</v>
       </c>
       <c r="U29" t="n">
-        <v>43.1707369609502</v>
+        <v>43.17073696095014</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499328</v>
+        <v>124.4812200499327</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278897</v>
+        <v>149.7813195278896</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0815777606363</v>
+        <v>169.0815777606362</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4781755568351</v>
+        <v>180.478175556835</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697961081</v>
+        <v>7.165089697961024</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306407</v>
+        <v>16.98340501306402</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593776</v>
+        <v>29.77444876593771</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645829</v>
+        <v>20.82086462645823</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147687</v>
+        <v>75.17861149147681</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407632</v>
+        <v>48.99969008407626</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468958</v>
+        <v>74.16657615468952</v>
       </c>
       <c r="X31" t="n">
-        <v>19.8116781504927</v>
+        <v>19.81167815049264</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656038</v>
+        <v>10.68654590656033</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097537</v>
+        <v>180.9748428097536</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9861597674354</v>
+        <v>168.9861597674353</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119634</v>
+        <v>159.9674638119633</v>
       </c>
       <c r="E32" t="n">
         <v>181.7096013818689</v>
       </c>
       <c r="F32" t="n">
-        <v>200.8814174698461</v>
+        <v>200.881417469846</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533886</v>
+        <v>202.3461272533885</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5661795618049</v>
+        <v>115.5661795618048</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970392</v>
+        <v>10.93598234970386</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095022</v>
+        <v>43.17073696095014</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499328</v>
+        <v>124.4812200499327</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7813195278897</v>
+        <v>149.7813195278896</v>
       </c>
       <c r="X32" t="n">
-        <v>169.0815777606363</v>
+        <v>169.0815777606362</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4781755568351</v>
+        <v>180.478175556835</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697961109</v>
+        <v>7.165089697961024</v>
       </c>
       <c r="V33" t="n">
-        <v>16.9834050130641</v>
+        <v>16.98340501306402</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593779</v>
+        <v>29.77444876593771</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645832</v>
+        <v>20.82086462645823</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1786114914769</v>
+        <v>75.17861149147681</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407635</v>
+        <v>48.99969008407626</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468961</v>
+        <v>74.16657615468952</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049272</v>
+        <v>19.81167815049264</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656041</v>
+        <v>10.68654590656033</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C35" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D35" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438958</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534888</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y35" t="n">
         <v>138.8228165594197</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438951</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534842</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251741</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W38" t="n">
         <v>108.1259605304743</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406151</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660958</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727422</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>127.3308007700201</v>
       </c>
       <c r="D41" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E41" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F41" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G41" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438958</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.515377963534899</v>
+        <v>1.51537796353486</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W41" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X41" t="n">
         <v>127.426218763221</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>127.3308007700201</v>
       </c>
       <c r="D44" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E44" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438958</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.515377963534899</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W44" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X44" t="n">
         <v>127.426218763221</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.1207417848181</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="C11" t="n">
-        <v>382.1207417848181</v>
+        <v>249.168801666596</v>
       </c>
       <c r="D11" t="n">
-        <v>249.1688016665962</v>
+        <v>249.168801666596</v>
       </c>
       <c r="E11" t="n">
-        <v>249.1688016665962</v>
+        <v>116.2168615483742</v>
       </c>
       <c r="F11" t="n">
-        <v>116.2168615483743</v>
+        <v>116.2168615483742</v>
       </c>
       <c r="G11" t="n">
-        <v>116.2168615483743</v>
+        <v>116.2168615483742</v>
       </c>
       <c r="H11" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I11" t="n">
-        <v>76.89870416677087</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J11" t="n">
-        <v>76.89870416677087</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K11" t="n">
-        <v>76.89870416677087</v>
+        <v>66.90212058281277</v>
       </c>
       <c r="L11" t="n">
-        <v>178.320260062007</v>
+        <v>66.90212058281277</v>
       </c>
       <c r="M11" t="n">
-        <v>292.3510678006756</v>
+        <v>180.9329283214813</v>
       </c>
       <c r="N11" t="n">
-        <v>292.3510678006756</v>
+        <v>297.0323322154804</v>
       </c>
       <c r="O11" t="n">
-        <v>292.3510678006756</v>
+        <v>407.9679878302227</v>
       </c>
       <c r="P11" t="n">
-        <v>318.8285109267653</v>
+        <v>407.9679878302227</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.9679878302234</v>
+        <v>407.9679878302227</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619471</v>
+        <v>481.5587050619465</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U11" t="n">
-        <v>526.4896828681586</v>
+        <v>493.9293246749799</v>
       </c>
       <c r="V11" t="n">
-        <v>526.4896828681586</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="W11" t="n">
-        <v>515.07268190304</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="X11" t="n">
-        <v>515.07268190304</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="Y11" t="n">
-        <v>515.07268190304</v>
+        <v>382.1207417848177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="L12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="M12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="N12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="O12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="P12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="R12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="S12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392288</v>
+        <v>35.66705535392275</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315499</v>
+        <v>29.55854761315492</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N13" t="n">
-        <v>10.52979365736317</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="O13" t="n">
-        <v>10.52979365736317</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="P13" t="n">
-        <v>10.52979365736317</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.9501913682647</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934136</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934136</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411208</v>
+        <v>186.7041638411205</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534713</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279202</v>
+        <v>83.36442962279189</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108927</v>
+        <v>19.4951429510892</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.5377427499367</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="C14" t="n">
-        <v>393.5377427499367</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="D14" t="n">
-        <v>393.5377427499367</v>
+        <v>382.1207417848177</v>
       </c>
       <c r="E14" t="n">
-        <v>382.1207417848181</v>
+        <v>249.168801666596</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1688016665962</v>
+        <v>249.168801666596</v>
       </c>
       <c r="G14" t="n">
         <v>116.2168615483743</v>
       </c>
       <c r="H14" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I14" t="n">
-        <v>76.89870416677093</v>
+        <v>76.89870416677086</v>
       </c>
       <c r="J14" t="n">
-        <v>93.94461388195035</v>
+        <v>76.89870416677086</v>
       </c>
       <c r="K14" t="n">
-        <v>93.94461388195035</v>
+        <v>155.952635238837</v>
       </c>
       <c r="L14" t="n">
-        <v>195.3661697771865</v>
+        <v>155.952635238837</v>
       </c>
       <c r="M14" t="n">
-        <v>309.3969775158552</v>
+        <v>155.952635238837</v>
       </c>
       <c r="N14" t="n">
-        <v>309.3969775158552</v>
+        <v>272.0520391328361</v>
       </c>
       <c r="O14" t="n">
-        <v>309.3969775158552</v>
+        <v>382.9876947475784</v>
       </c>
       <c r="P14" t="n">
-        <v>407.9679878302233</v>
+        <v>481.5587050619465</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.9679878302233</v>
+        <v>481.5587050619465</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619471</v>
+        <v>481.5587050619465</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U14" t="n">
-        <v>526.4896828681586</v>
+        <v>515.0726819030394</v>
       </c>
       <c r="V14" t="n">
-        <v>526.4896828681586</v>
+        <v>515.0726819030394</v>
       </c>
       <c r="W14" t="n">
-        <v>526.4896828681586</v>
+        <v>515.0726819030394</v>
       </c>
       <c r="X14" t="n">
-        <v>526.4896828681586</v>
+        <v>515.0726819030394</v>
       </c>
       <c r="Y14" t="n">
-        <v>526.4896828681586</v>
+        <v>382.1207417848177</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="H15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="I15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="J15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="K15" t="n">
-        <v>10.52979365736317</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392276</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315494</v>
+        <v>29.55854761315495</v>
       </c>
       <c r="W15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L16" t="n">
-        <v>83.26849570269815</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="M16" t="n">
-        <v>83.26849570269815</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="N16" t="n">
-        <v>83.26849570269815</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="O16" t="n">
-        <v>83.26849570269815</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="P16" t="n">
-        <v>83.26849570269815</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="R16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411206</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V16" t="n">
-        <v>83.3644296227919</v>
+        <v>83.36442962279195</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108921</v>
+        <v>19.49514295108922</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018788</v>
+        <v>323.6075332018792</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348597</v>
+        <v>274.92329253486</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622566</v>
+        <v>235.3488457622569</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685367</v>
+        <v>173.8126438685371</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888067</v>
+        <v>92.91097117888066</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H17" t="n">
-        <v>10.52979365736317</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="I17" t="n">
-        <v>10.52979365736317</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="J17" t="n">
-        <v>10.52979365736317</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="K17" t="n">
-        <v>135.5710933385508</v>
+        <v>276.3125428029299</v>
       </c>
       <c r="L17" t="n">
-        <v>135.5710933385508</v>
+        <v>276.3125428029299</v>
       </c>
       <c r="M17" t="n">
-        <v>265.8772898484201</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="N17" t="n">
-        <v>265.8772898484201</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1834863582894</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="P17" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="Q17" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="R17" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="S17" t="n">
-        <v>526.4896828681586</v>
+        <v>417.7354315023495</v>
       </c>
       <c r="T17" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642724</v>
+        <v>522.7599267642728</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220467</v>
+        <v>493.4745146220471</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437133</v>
+        <v>444.6938921437136</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197246</v>
+        <v>384.4015547197249</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="C18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="D18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="E18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="F18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="H18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="I18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="K18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="L18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="M18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="N18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="O18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="P18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="R18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="S18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="T18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="W18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="X18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018788</v>
+        <v>323.6075332018783</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348595</v>
+        <v>274.9232925348589</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622566</v>
+        <v>235.348845762256</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685367</v>
+        <v>173.8126438685362</v>
       </c>
       <c r="F20" t="n">
-        <v>92.91097117888066</v>
+        <v>92.91097117888064</v>
       </c>
       <c r="G20" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H20" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I20" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J20" t="n">
-        <v>140.8359901672324</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K20" t="n">
-        <v>271.1421866771017</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1421866771017</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M20" t="n">
-        <v>271.1421866771017</v>
+        <v>140.8359901672323</v>
       </c>
       <c r="N20" t="n">
-        <v>271.1421866771017</v>
+        <v>271.1421866771013</v>
       </c>
       <c r="O20" t="n">
-        <v>271.1421866771017</v>
+        <v>319.3416420576142</v>
       </c>
       <c r="P20" t="n">
-        <v>271.1421866771017</v>
+        <v>319.3416420576142</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.1421866771017</v>
+        <v>319.3416420576142</v>
       </c>
       <c r="R20" t="n">
-        <v>401.4483831869709</v>
+        <v>319.3416420576142</v>
       </c>
       <c r="S20" t="n">
-        <v>401.4483831869709</v>
+        <v>449.6478385674833</v>
       </c>
       <c r="T20" t="n">
-        <v>449.647838567484</v>
+        <v>449.6478385674833</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642727</v>
+        <v>522.7599267642721</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220469</v>
+        <v>493.4745146220463</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437135</v>
+        <v>444.6938921437129</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197247</v>
+        <v>384.4015547197241</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="D21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="F21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="G21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="H21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="I21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="J21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="L21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="N21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="O21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="P21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="R21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="S21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="T21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="W21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="X21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018792</v>
+        <v>323.6075332018789</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348598</v>
+        <v>274.9232925348595</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622565</v>
+        <v>235.3488457622564</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8126438685366</v>
+        <v>173.8126438685365</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888071</v>
+        <v>92.91097117888064</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736317</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="I23" t="n">
-        <v>10.52979365736317</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="J23" t="n">
-        <v>10.52979365736317</v>
+        <v>26.81684197274217</v>
       </c>
       <c r="K23" t="n">
-        <v>140.8359901672324</v>
+        <v>26.81684197274217</v>
       </c>
       <c r="L23" t="n">
-        <v>271.1421866771017</v>
+        <v>26.81684197274217</v>
       </c>
       <c r="M23" t="n">
-        <v>401.4483831869709</v>
+        <v>26.81684197274217</v>
       </c>
       <c r="N23" t="n">
-        <v>526.4896828681586</v>
+        <v>157.1230384826113</v>
       </c>
       <c r="O23" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="P23" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="Q23" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="R23" t="n">
-        <v>526.4896828681586</v>
+        <v>287.4292349924804</v>
       </c>
       <c r="S23" t="n">
-        <v>526.4896828681586</v>
+        <v>417.7354315023495</v>
       </c>
       <c r="T23" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681586</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642731</v>
+        <v>522.7599267642726</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220474</v>
+        <v>493.4745146220469</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437139</v>
+        <v>444.6938921437135</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197251</v>
+        <v>384.4015547197247</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="E24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="F24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="I24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="J24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="K24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="L24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="M24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="N24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="P24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="R24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="S24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="T24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="U24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="V24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="W24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="X24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736316</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="C25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="D25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="E25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="F25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="G25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="H25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="I25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="J25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="K25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="L25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="M25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="N25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="O25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="P25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="R25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="S25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="T25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="U25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="V25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="W25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="X25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.52979365736317</v>
+        <v>526.489682868158</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1078.782752367162</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929853</v>
+        <v>908.0896616929849</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132243</v>
+        <v>746.506364913224</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123466</v>
+        <v>562.9613130123462</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155324</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868573</v>
       </c>
       <c r="H26" t="n">
         <v>38.92724807796348</v>
       </c>
       <c r="I26" t="n">
-        <v>94.4695360611644</v>
+        <v>94.46953606116439</v>
       </c>
       <c r="J26" t="n">
-        <v>195.2483166832098</v>
+        <v>412.8756604096686</v>
       </c>
       <c r="K26" t="n">
-        <v>676.9730116480077</v>
+        <v>501.8841908619963</v>
       </c>
       <c r="L26" t="n">
-        <v>767.5679450170371</v>
+        <v>592.4791242310256</v>
       </c>
       <c r="M26" t="n">
-        <v>1242.25906913482</v>
+        <v>635.4102894411153</v>
       </c>
       <c r="N26" t="n">
-        <v>1347.531850502612</v>
+        <v>1117.134984405913</v>
       </c>
       <c r="O26" t="n">
-        <v>1447.640883591148</v>
+        <v>1598.859679370712</v>
       </c>
       <c r="P26" t="n">
-        <v>1447.640883591148</v>
+        <v>1686.604067158873</v>
       </c>
       <c r="Q26" t="n">
-        <v>1799.203130947697</v>
+        <v>1764.916921536124</v>
       </c>
       <c r="R26" t="n">
         <v>1912.258048618169</v>
@@ -6263,7 +6263,7 @@
         <v>1765.970545958187</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808804</v>
+        <v>1614.676283808803</v>
       </c>
       <c r="X26" t="n">
         <v>1443.886811323312</v>
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.71723090800418</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="C27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="D27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="E27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="F27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="G27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="H27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="I27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="J27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="K27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="L27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="M27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166321</v>
+        <v>70.28776459465959</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166323</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028844</v>
+        <v>86.15740341028845</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163794</v>
       </c>
       <c r="W27" t="n">
         <v>38.92724807796348</v>
@@ -6364,34 +6364,34 @@
         <v>38.92724807796348</v>
       </c>
       <c r="D28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="E28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="F28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="G28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="H28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="I28" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="J28" t="n">
-        <v>140.5025120547913</v>
+        <v>38.92724807796348</v>
       </c>
       <c r="K28" t="n">
-        <v>140.5025120547913</v>
+        <v>96.70622891109245</v>
       </c>
       <c r="L28" t="n">
-        <v>140.5025120547913</v>
+        <v>228.2487203746613</v>
       </c>
       <c r="M28" t="n">
-        <v>291.1130727383209</v>
+        <v>228.2487203746613</v>
       </c>
       <c r="N28" t="n">
         <v>291.1130727383209</v>
@@ -6412,7 +6412,7 @@
         <v>291.1130727383209</v>
       </c>
       <c r="T28" t="n">
-        <v>270.081896347959</v>
+        <v>270.0818963479591</v>
       </c>
       <c r="U28" t="n">
         <v>194.1439049424269</v>
@@ -6421,7 +6421,7 @@
         <v>144.649268493865</v>
       </c>
       <c r="W28" t="n">
-        <v>69.7335350042796</v>
+        <v>69.73353500427962</v>
       </c>
       <c r="X28" t="n">
         <v>49.72173889267088</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367163</v>
+        <v>1078.782752367162</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929854</v>
+        <v>908.0896616929847</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132244</v>
+        <v>746.5063649132239</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123466</v>
+        <v>562.9613130123463</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155324</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G29" t="n">
-        <v>155.6607627868573</v>
+        <v>155.6607627868572</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116435</v>
+        <v>94.46953606116438</v>
       </c>
       <c r="J29" t="n">
         <v>195.2483166832097</v>
       </c>
       <c r="K29" t="n">
-        <v>494.395014414672</v>
+        <v>284.2568471355374</v>
       </c>
       <c r="L29" t="n">
-        <v>976.11970937947</v>
+        <v>765.9815421003352</v>
       </c>
       <c r="M29" t="n">
-        <v>1457.844404344268</v>
+        <v>765.9815421003352</v>
       </c>
       <c r="N29" t="n">
-        <v>1563.11718571206</v>
+        <v>871.2543234681275</v>
       </c>
       <c r="O29" t="n">
-        <v>1663.226218800596</v>
+        <v>1352.979018432925</v>
       </c>
       <c r="P29" t="n">
-        <v>1750.970606588757</v>
+        <v>1440.723406221087</v>
       </c>
       <c r="Q29" t="n">
-        <v>1764.916921536124</v>
+        <v>1792.285653577635</v>
       </c>
       <c r="R29" t="n">
-        <v>1912.258048618169</v>
+        <v>1912.258048618168</v>
       </c>
       <c r="S29" t="n">
-        <v>1946.362403898174</v>
+        <v>1946.362403898173</v>
       </c>
       <c r="T29" t="n">
-        <v>1935.315957080291</v>
+        <v>1935.31595708029</v>
       </c>
       <c r="U29" t="n">
         <v>1891.70915206923</v>
       </c>
       <c r="V29" t="n">
-        <v>1765.970545958188</v>
+        <v>1765.970545958186</v>
       </c>
       <c r="W29" t="n">
-        <v>1614.676283808804</v>
+        <v>1614.676283808803</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323313</v>
+        <v>1443.886811323312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="E30" t="n">
-        <v>93.3948677516634</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="F30" t="n">
-        <v>93.3948677516634</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="G30" t="n">
-        <v>93.3948677516634</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="H30" t="n">
-        <v>93.3948677516634</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="I30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="J30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="K30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="L30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="M30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="N30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="O30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="P30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="R30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="S30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="T30" t="n">
-        <v>93.3948677516634</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="U30" t="n">
-        <v>86.15740341028857</v>
+        <v>86.15740341028844</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163798</v>
+        <v>69.00244885163792</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.92724807796348</v>
+        <v>66.06160993035729</v>
       </c>
       <c r="C31" t="n">
-        <v>38.92724807796348</v>
+        <v>66.06160993035729</v>
       </c>
       <c r="D31" t="n">
-        <v>38.92724807796348</v>
+        <v>91.44519074371294</v>
       </c>
       <c r="E31" t="n">
-        <v>38.92724807796348</v>
+        <v>91.44519074371294</v>
       </c>
       <c r="F31" t="n">
-        <v>38.92724807796348</v>
+        <v>91.44519074371294</v>
       </c>
       <c r="G31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="H31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="I31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="J31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="K31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="L31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="M31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="N31" t="n">
-        <v>38.92724807796348</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="O31" t="n">
-        <v>221.2664822235814</v>
+        <v>133.1320010581027</v>
       </c>
       <c r="P31" t="n">
-        <v>221.2664822235814</v>
+        <v>221.266482223581</v>
       </c>
       <c r="Q31" t="n">
-        <v>221.2664822235814</v>
+        <v>221.266482223581</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383212</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383212</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="T31" t="n">
-        <v>270.0818963479593</v>
+        <v>270.081896347959</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424271</v>
+        <v>194.1439049424268</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6492684938652</v>
+        <v>144.649268493865</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427972</v>
+        <v>69.73353500427959</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267093</v>
+        <v>49.72173889267086</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6677,67 @@
         <v>1078.782752367162</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929851</v>
+        <v>908.0896616929849</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132239</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123464</v>
+        <v>562.9613130123463</v>
       </c>
       <c r="F32" t="n">
         <v>360.0507903155321</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868573</v>
+        <v>155.6607627868572</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116432</v>
+        <v>94.46953606116438</v>
       </c>
       <c r="J32" t="n">
-        <v>412.8756604096685</v>
+        <v>412.8756604096686</v>
       </c>
       <c r="K32" t="n">
-        <v>501.8841908619962</v>
+        <v>501.8841908619963</v>
       </c>
       <c r="L32" t="n">
-        <v>592.4791242310255</v>
+        <v>592.4791242310256</v>
       </c>
       <c r="M32" t="n">
-        <v>592.4791242310255</v>
+        <v>695.6833094434872</v>
       </c>
       <c r="N32" t="n">
-        <v>1037.591870349741</v>
+        <v>918.3876415524484</v>
       </c>
       <c r="O32" t="n">
-        <v>1137.700903438276</v>
+        <v>1400.112336517246</v>
       </c>
       <c r="P32" t="n">
-        <v>1619.425598403074</v>
+        <v>1413.354674179574</v>
       </c>
       <c r="Q32" t="n">
-        <v>1849.493953912652</v>
+        <v>1764.916921536123</v>
       </c>
       <c r="R32" t="n">
-        <v>1912.258048618169</v>
+        <v>1912.258048618168</v>
       </c>
       <c r="S32" t="n">
-        <v>1946.362403898174</v>
+        <v>1946.362403898173</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.315957080291</v>
+        <v>1935.31595708029</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.709152069231</v>
+        <v>1891.70915206923</v>
       </c>
       <c r="V32" t="n">
         <v>1765.970545958187</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.676283808804</v>
+        <v>1614.676283808803</v>
       </c>
       <c r="X32" t="n">
         <v>1443.886811323312</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="K33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="L33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="M33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="N33" t="n">
-        <v>93.39486775166348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="O33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166348</v>
+        <v>93.39486775166321</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028862</v>
+        <v>86.15740341028844</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163801</v>
+        <v>69.00244885163792</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796348</v>
+        <v>51.98578671934444</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="C34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="D34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="E34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="F34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="G34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="H34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="I34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="J34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
       <c r="K34" t="n">
-        <v>38.92724807796348</v>
+        <v>96.70622891109244</v>
       </c>
       <c r="L34" t="n">
-        <v>291.1130727383214</v>
+        <v>140.8492370874312</v>
       </c>
       <c r="M34" t="n">
-        <v>291.1130727383214</v>
+        <v>140.8492370874312</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383214</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479595</v>
+        <v>270.081896347959</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424272</v>
+        <v>194.1439049424268</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938652</v>
+        <v>144.649268493865</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427977</v>
+        <v>69.73353500427959</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267096</v>
+        <v>49.72173889267086</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796348</v>
+        <v>38.92724807796346</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133432</v>
+        <v>815.7962375133427</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385754</v>
+        <v>687.1792670385749</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582238</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567555</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593505</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1785478112436</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407302</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004991</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769695</v>
+        <v>529.2772084769681</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968723</v>
+        <v>673.7201990968709</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721058</v>
+        <v>820.2317858721046</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680825</v>
+        <v>961.5796243680813</v>
       </c>
       <c r="P35" t="n">
-        <v>1090.562817563685</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q35" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R35" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T35" t="n">
         <v>1419.872721030015</v>
       </c>
       <c r="U35" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V35" t="n">
         <v>1334.67955030673</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389374</v>
+        <v>956.522988838937</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992889</v>
+        <v>68.65558395992871</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077634</v>
+        <v>61.23706771077624</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.02269845905369</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133427</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385749</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582236</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567553</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593506</v>
+        <v>265.3687562593505</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I38" t="n">
         <v>125.1785478112424</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407293</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004979</v>
+        <v>397.4434697004982</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769687</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968715</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721049</v>
+        <v>820.231785872105</v>
       </c>
       <c r="O38" t="n">
         <v>961.5796243680817</v>
@@ -7199,7 +7199,7 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T38" t="n">
         <v>1419.872721030015</v>
@@ -7217,7 +7217,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389371</v>
+        <v>956.522988838937</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060031</v>
+        <v>1419.872721030015</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660515</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660515</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660515</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660515</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660515</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992878</v>
+        <v>68.65558395992871</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077629</v>
+        <v>61.23706771077624</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133429</v>
+        <v>815.7962375133421</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385749</v>
+        <v>687.1792670385744</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582228</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567551</v>
+        <v>426.2031587567544</v>
       </c>
       <c r="F41" t="n">
-        <v>265.3687562593504</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G41" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I41" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004977</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769681</v>
+        <v>529.277208476968</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968709</v>
+        <v>673.7201990968708</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721043</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680811</v>
+        <v>961.5796243680809</v>
       </c>
       <c r="P41" t="n">
         <v>1090.562817563683</v>
@@ -7442,19 +7442,19 @@
         <v>1419.872721030015</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.67955030673</v>
+        <v>1334.679550306729</v>
       </c>
       <c r="W41" t="n">
-        <v>1225.461408356756</v>
+        <v>1225.461408356755</v>
       </c>
       <c r="X41" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389372</v>
+        <v>956.5229888389364</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992889</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V43" t="n">
-        <v>61.23706771077634</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133429</v>
+        <v>815.7962375133426</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385753</v>
+        <v>687.1792670385748</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582239</v>
+        <v>567.6720904582237</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567554</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593504</v>
       </c>
       <c r="G44" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J44" t="n">
-        <v>267.19613384073</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004989</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769693</v>
+        <v>529.2772084769691</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968722</v>
+        <v>673.720199096872</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721057</v>
+        <v>820.2317858721054</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680824</v>
+        <v>961.579624368082</v>
       </c>
       <c r="P44" t="n">
-        <v>1090.562817563685</v>
+        <v>1090.562817563684</v>
       </c>
       <c r="Q44" t="n">
         <v>1210.114477348377</v>
@@ -7691,7 +7691,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389372</v>
+        <v>956.5229888389368</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39745442060031</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992889</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077634</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060031</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
   </sheetData>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>404.720672342832</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>584.3675935406823</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>497.8504404196252</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>385.4703655315784</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>50.79881107571256</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>135.0807255470629</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>395.0805672684533</v>
+        <v>395.0805672684531</v>
       </c>
       <c r="M29" t="n">
-        <v>382.3439492447841</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>385.4703655315781</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.9766861828396</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>85.43134583487716</v>
+        <v>57.78616195456149</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>34.44025756804778</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O31" t="n">
-        <v>57.840868939286</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>104.881609583326</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>343.2726916675989</v>
+        <v>118.6177280213826</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>385.4703655315781</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L34" t="n">
-        <v>123.9508034149649</v>
+        <v>122.9348056532833</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083805</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.406874616804998e-12</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.41643974301013</v>
+        <v>170.0388604600497</v>
       </c>
       <c r="C11" t="n">
-        <v>158.0501774177315</v>
+        <v>26.42775670069199</v>
       </c>
       <c r="D11" t="n">
-        <v>17.40906074521985</v>
+        <v>149.0314814622594</v>
       </c>
       <c r="E11" t="n">
-        <v>170.773619032165</v>
+        <v>39.1511983151255</v>
       </c>
       <c r="F11" t="n">
-        <v>58.32301440310255</v>
+        <v>189.9454351201422</v>
       </c>
       <c r="G11" t="n">
         <v>191.4101449036847</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>2.854740638968337</v>
       </c>
       <c r="W11" t="n">
-        <v>127.5425062227184</v>
+        <v>138.8453371781858</v>
       </c>
       <c r="X11" t="n">
         <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.5421932071312</v>
+        <v>169.5421932071311</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.41643974301007</v>
+        <v>170.0388604600498</v>
       </c>
       <c r="C14" t="n">
         <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>149.0314814622594</v>
+        <v>149.0314814622595</v>
       </c>
       <c r="E14" t="n">
-        <v>159.4707880766976</v>
+        <v>39.15119831512553</v>
       </c>
       <c r="F14" t="n">
-        <v>58.32301440310249</v>
+        <v>189.9454351201422</v>
       </c>
       <c r="G14" t="n">
-        <v>59.78772418664499</v>
+        <v>59.78772418664519</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124627</v>
+        <v>20.93192365577898</v>
       </c>
       <c r="V14" t="n">
         <v>113.5452377002289</v>
@@ -23561,7 +23561,7 @@
         <v>158.1455954109324</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.5421932071311</v>
+        <v>37.91977249009167</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686018.9680727612</v>
+        <v>686018.9680727613</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857691.5488880805</v>
+        <v>857691.5488880804</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>786814.6620065363</v>
+        <v>786814.6620065361</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555260.5578427956</v>
+        <v>555260.5578427955</v>
       </c>
       <c r="C2" t="n">
-        <v>555260.5578427957</v>
+        <v>555260.5578427955</v>
       </c>
       <c r="D2" t="n">
-        <v>555260.5578427957</v>
+        <v>555260.5578427955</v>
       </c>
       <c r="E2" t="n">
+        <v>485232.928636831</v>
+      </c>
+      <c r="F2" t="n">
         <v>485232.9286368309</v>
       </c>
-      <c r="F2" t="n">
-        <v>485232.9286368311</v>
-      </c>
       <c r="G2" t="n">
+        <v>556527.4438582812</v>
+      </c>
+      <c r="H2" t="n">
         <v>556527.4438582814</v>
       </c>
-      <c r="H2" t="n">
-        <v>556527.4438582812</v>
-      </c>
       <c r="I2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="J2" t="n">
-        <v>556527.4438582821</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="K2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="L2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582819</v>
       </c>
       <c r="M2" t="n">
         <v>556527.4438582816</v>
       </c>
       <c r="N2" t="n">
-        <v>556527.4438582819</v>
+        <v>556527.4438582818</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582818</v>
       </c>
       <c r="P2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582818</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115119</v>
+        <v>308990.6514115118</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590587</v>
+        <v>87882.2233259059</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172295.6802798567</v>
+        <v>172295.6802798568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.2233259059</v>
       </c>
       <c r="M3" t="n">
         <v>33324.28719793227</v>
@@ -26439,7 +26439,7 @@
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="K4" t="n">
         <v>405719.4410900336</v>
@@ -26448,7 +26448,7 @@
         <v>405719.4410900336</v>
       </c>
       <c r="M4" t="n">
-        <v>398950.3342181894</v>
+        <v>398950.3342181895</v>
       </c>
       <c r="N4" t="n">
         <v>398950.3342181895</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29044.09759212585</v>
+        <v>29044.09759212584</v>
       </c>
       <c r="F5" t="n">
-        <v>29044.09759212586</v>
+        <v>29044.09759212584</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162483</v>
+        <v>49706.78585162484</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162483</v>
+        <v>49706.78585162482</v>
       </c>
       <c r="L5" t="n">
         <v>49706.78585162482</v>
@@ -26503,7 +26503,7 @@
         <v>45206.06704758252</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.06704758253</v>
+        <v>45206.06704758252</v>
       </c>
       <c r="O5" t="n">
         <v>45206.06704758252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84495.79263136143</v>
+        <v>84491.42405889412</v>
       </c>
       <c r="C6" t="n">
-        <v>84495.79263136155</v>
+        <v>84491.42405889412</v>
       </c>
       <c r="D6" t="n">
-        <v>84495.79263136155</v>
+        <v>84491.42405889412</v>
       </c>
       <c r="E6" t="n">
-        <v>-194768.0930561013</v>
+        <v>-195013.9362120371</v>
       </c>
       <c r="F6" t="n">
-        <v>114222.5583554107</v>
+        <v>113976.7151994746</v>
       </c>
       <c r="G6" t="n">
-        <v>32343.83699864487</v>
+        <v>32343.8369986447</v>
       </c>
       <c r="H6" t="n">
-        <v>120226.0603245506</v>
+        <v>120226.0603245507</v>
       </c>
       <c r="I6" t="n">
-        <v>120226.0603245506</v>
+        <v>120226.0603245507</v>
       </c>
       <c r="J6" t="n">
-        <v>-71194.46336323311</v>
+        <v>-71194.46336323376</v>
       </c>
       <c r="K6" t="n">
-        <v>101101.2169166234</v>
+        <v>101101.2169166233</v>
       </c>
       <c r="L6" t="n">
-        <v>13218.99359071729</v>
+        <v>13218.99359071759</v>
       </c>
       <c r="M6" t="n">
-        <v>79046.7553945774</v>
+        <v>79046.75539457734</v>
       </c>
       <c r="N6" t="n">
-        <v>112371.0425925099</v>
+        <v>112371.0425925098</v>
       </c>
       <c r="O6" t="n">
-        <v>32950.65686794726</v>
+        <v>32950.65686794744</v>
       </c>
       <c r="P6" t="n">
-        <v>112371.0425925097</v>
+        <v>112371.0425925098</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>329.9170228201716</v>
       </c>
       <c r="I2" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="J2" t="n">
         <v>209.1282613130853</v>
@@ -26716,7 +26716,7 @@
         <v>209.1282613130853</v>
       </c>
       <c r="M2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N2" t="n">
         <v>250.7836203105007</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="G3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="H3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="I3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="J3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="L3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="M3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="N3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="O3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="P3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="J4" t="n">
         <v>486.5906009745435</v>
       </c>
       <c r="K4" t="n">
-        <v>486.5906009745435</v>
+        <v>486.5906009745432</v>
       </c>
       <c r="L4" t="n">
-        <v>486.5906009745435</v>
+        <v>486.5906009745432</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575037</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>220.0642436627892</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="M2" t="n">
         <v>41.65535899741533</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276522</v>
+        <v>116.5538308276521</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575041</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>220.0642436627892</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,31 +28108,31 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>220.0642436627892</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J11" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K11" t="n">
-        <v>119.2206547955825</v>
+        <v>176.1623991647236</v>
       </c>
       <c r="L11" t="n">
-        <v>220.0642436627892</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M11" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="N11" t="n">
-        <v>102.7921185173354</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="O11" t="n">
-        <v>108.0080258701201</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="P11" t="n">
-        <v>147.2424586241241</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.0642436627892</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R11" t="n">
         <v>220.0642436627892</v>
@@ -28184,34 +28184,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H12" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I12" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K12" t="n">
-        <v>96.90467854487777</v>
+        <v>96.90467854487771</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28263,37 +28263,37 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I13" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J13" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K13" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L13" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518441</v>
+        <v>203.203800442224</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q13" t="n">
-        <v>220.0642436627892</v>
+        <v>161.915259355179</v>
       </c>
       <c r="R13" t="n">
-        <v>212.0495860914646</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S13" t="n">
         <v>207.9098175327</v>
@@ -28348,31 +28348,31 @@
         <v>220.0642436627892</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5496038314026</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K14" t="n">
-        <v>119.2206547955825</v>
+        <v>199.0731104239322</v>
       </c>
       <c r="L14" t="n">
+        <v>117.6182276069952</v>
+      </c>
+      <c r="M14" t="n">
+        <v>104.8816095833261</v>
+      </c>
+      <c r="N14" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>220.0642436627892</v>
-      </c>
-      <c r="N14" t="n">
-        <v>102.7921185173354</v>
-      </c>
-      <c r="O14" t="n">
-        <v>108.0080258701201</v>
       </c>
       <c r="P14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0243680027304</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R14" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S14" t="n">
         <v>220.0642436627892</v>
@@ -28409,7 +28409,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>162.8414240705584</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28421,34 +28421,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I15" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K15" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L15" t="n">
-        <v>83.53266931217713</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
@@ -28500,34 +28500,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K16" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L16" t="n">
-        <v>151.8193449148956</v>
+        <v>209.9683292225059</v>
       </c>
       <c r="M16" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q16" t="n">
-        <v>220.0642436627892</v>
+        <v>161.9152593551792</v>
       </c>
       <c r="R16" t="n">
         <v>138.576149682035</v>
@@ -28579,43 +28579,43 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H17" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I17" t="n">
-        <v>153.0249401179329</v>
+        <v>284.6473608349724</v>
       </c>
       <c r="J17" t="n">
-        <v>107.3315132100092</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K17" t="n">
-        <v>245.5249979078933</v>
+        <v>250.8430755126221</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6182276069951</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M17" t="n">
-        <v>236.5040303003656</v>
+        <v>116.110591592973</v>
       </c>
       <c r="N17" t="n">
-        <v>102.7921185173354</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O17" t="n">
-        <v>239.6304465871597</v>
+        <v>108.0080258701202</v>
       </c>
       <c r="P17" t="n">
-        <v>252.1199872946085</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0243680027304</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S17" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129484</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0642436627892</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="U17" t="n">
         <v>252.2989982740355</v>
@@ -28658,34 +28658,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H18" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I18" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K18" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28737,31 +28737,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I19" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J19" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K19" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M19" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28822,37 +28822,37 @@
         <v>153.0249401179329</v>
       </c>
       <c r="J20" t="n">
-        <v>238.9539339270489</v>
+        <v>107.3315132100093</v>
       </c>
       <c r="K20" t="n">
-        <v>250.8430755126222</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6182276069951</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M20" t="n">
-        <v>104.881609583326</v>
+        <v>236.5040303003656</v>
       </c>
       <c r="N20" t="n">
-        <v>102.7921185173354</v>
+        <v>234.414539234375</v>
       </c>
       <c r="O20" t="n">
-        <v>108.0080258701201</v>
+        <v>156.6943444362948</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4975665775688</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.0243680027304</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R20" t="n">
-        <v>277.3526065700069</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S20" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129484</v>
       </c>
       <c r="T20" t="n">
-        <v>268.750562228964</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U20" t="n">
         <v>329.9170228201716</v>
@@ -28895,34 +28895,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H21" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I21" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K21" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28974,31 +28974,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I22" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J22" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K22" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M22" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="C23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="D23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="E23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="F23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="G23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="H23" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I23" t="n">
         <v>153.0249401179329</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3315132100092</v>
+        <v>118.5604952196562</v>
       </c>
       <c r="K23" t="n">
-        <v>250.8430755126222</v>
+        <v>119.2206547955826</v>
       </c>
       <c r="L23" t="n">
-        <v>249.2406483240347</v>
+        <v>117.6182276069952</v>
       </c>
       <c r="M23" t="n">
-        <v>236.5040303003656</v>
+        <v>104.8816095833261</v>
       </c>
       <c r="N23" t="n">
-        <v>229.0964616296462</v>
+        <v>234.414539234375</v>
       </c>
       <c r="O23" t="n">
-        <v>108.0080258701201</v>
+        <v>239.6304465871597</v>
       </c>
       <c r="P23" t="n">
-        <v>120.4975665775688</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.0243680027304</v>
+        <v>130.0243680027305</v>
       </c>
       <c r="R23" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S23" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129484</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0642436627892</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="U23" t="n">
         <v>252.2989982740355</v>
       </c>
       <c r="V23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="W23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="X23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201716</v>
       </c>
     </row>
     <row r="24">
@@ -29132,34 +29132,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H24" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I24" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K24" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29211,31 +29211,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I25" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J25" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K25" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M25" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29299,22 +29299,22 @@
         <v>209.1282613130853</v>
       </c>
       <c r="K26" t="n">
-        <v>201.090583427294</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="L26" t="n">
         <v>209.1282613130853</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>148.246422926851</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130853</v>
+        <v>91.53227907225379</v>
       </c>
       <c r="O26" t="n">
         <v>209.1282613130853</v>
       </c>
       <c r="P26" t="n">
-        <v>120.4975665775688</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Q26" t="n">
         <v>209.1282613130853</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.1282613130853</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8014207220195</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -29363,40 +29363,40 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>165.0241494804285</v>
       </c>
       <c r="G27" t="n">
         <v>127.1905142842246</v>
       </c>
       <c r="H27" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I27" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K27" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P27" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
@@ -29405,7 +29405,7 @@
         <v>146.6148367064899</v>
       </c>
       <c r="T27" t="n">
-        <v>185.7877530736877</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="U27" t="n">
         <v>209.1282613130853</v>
@@ -29436,7 +29436,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>209.1282613130853</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -29448,34 +29448,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I28" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
-        <v>89.61119780041254</v>
+        <v>44.59700812871245</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589777</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546634</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083805</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>86.48380385827529</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.55233947787237</v>
+        <v>20.55233947787239</v>
       </c>
       <c r="R28" t="n">
         <v>138.576149682035</v>
@@ -29536,13 +29536,13 @@
         <v>209.1282613130853</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="L29" t="n">
         <v>209.1282613130853</v>
       </c>
       <c r="M29" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>209.1282613130853</v>
@@ -29554,7 +29554,7 @@
         <v>209.1282613130853</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.13486863541279</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="R29" t="n">
         <v>209.1282613130853</v>
@@ -29597,7 +29597,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>200.5755274938994</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -29606,34 +29606,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I30" t="n">
-        <v>72.23035288210312</v>
+        <v>127.2481505323049</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K30" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517104</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
@@ -29667,13 +29667,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>177.181154860066</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
@@ -29682,37 +29682,37 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0203721066311</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="H31" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K31" t="n">
-        <v>80.40428934589777</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546634</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396669</v>
+        <v>45.49042213591895</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827529</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.4981853689493</v>
+        <v>20.55233947787239</v>
       </c>
       <c r="R31" t="n">
         <v>209.1282613130853</v>
@@ -29779,7 +29779,7 @@
         <v>209.1282613130853</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="N32" t="n">
         <v>209.1282613130853</v>
@@ -29788,10 +29788,10 @@
         <v>209.1282613130853</v>
       </c>
       <c r="P32" t="n">
-        <v>188.7498469291849</v>
+        <v>133.8736652263853</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.40715843735727</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="R32" t="n">
         <v>209.1282613130853</v>
@@ -29843,34 +29843,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H33" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I33" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J33" t="n">
-        <v>79.36985402649256</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>71.51350511400938</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056943</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.52986688537307</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839741</v>
+        <v>98.03873091649727</v>
       </c>
       <c r="P33" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29891,7 +29891,7 @@
         <v>209.1282613130853</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -29922,34 +29922,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I34" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>88.32412184825276</v>
+        <v>44.59700812871245</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589777</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>79.93067970396669</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.4981853689493</v>
+        <v>20.55233947787239</v>
       </c>
       <c r="R34" t="n">
         <v>138.576149682035</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="36">
@@ -30080,34 +30080,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H36" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I36" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K36" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30159,31 +30159,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I37" t="n">
-        <v>189.4653638038662</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K37" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396669</v>
+        <v>154.7993673256345</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30198,16 +30198,16 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X37" t="n">
-        <v>250.7836203105006</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -30317,34 +30317,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H39" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I39" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J39" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K39" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30381,7 +30381,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>242.7884974646043</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30396,31 +30396,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H40" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I40" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J40" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K40" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O40" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P40" t="n">
-        <v>161.3524914799432</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30554,34 +30554,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H42" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I42" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K42" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30633,37 +30633,37 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9102360382001</v>
+        <v>230.7789236598681</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K43" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M43" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R43" t="n">
-        <v>213.444837303703</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S43" t="n">
         <v>207.9098175327</v>
@@ -30791,34 +30791,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H45" t="n">
-        <v>96.51723797799072</v>
+        <v>96.51723797799073</v>
       </c>
       <c r="I45" t="n">
-        <v>72.23035288210312</v>
+        <v>72.23035288210313</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649256</v>
+        <v>79.3698540264926</v>
       </c>
       <c r="K45" t="n">
-        <v>71.51350511400938</v>
+        <v>71.51350511400943</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130886</v>
+        <v>58.14149588130895</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056943</v>
+        <v>51.96206476056952</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517104</v>
+        <v>41.51206923517114</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839741</v>
+        <v>56.2113763383975</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834781</v>
+        <v>60.98136935834788</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160955</v>
+        <v>81.7334679316096</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30867,40 +30867,40 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0203721066311</v>
+        <v>241.889059728299</v>
       </c>
       <c r="H46" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I46" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J46" t="n">
-        <v>88.32412184825276</v>
+        <v>88.32412184825277</v>
       </c>
       <c r="K46" t="n">
-        <v>80.40428934589777</v>
+        <v>80.40428934589781</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546634</v>
+        <v>78.34590850546638</v>
       </c>
       <c r="M46" t="n">
-        <v>79.93067970396669</v>
+        <v>79.93067970396673</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518441</v>
+        <v>71.58137972518445</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083805</v>
+        <v>82.78808566083808</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827529</v>
+        <v>86.48380385827534</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R46" t="n">
-        <v>213.444837303703</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S46" t="n">
         <v>207.9098175327</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H11" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K11" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S11" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I12" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T12" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H13" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M13" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H14" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K14" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S14" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H15" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I15" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T15" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H16" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M16" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H17" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K17" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S17" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I18" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T18" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H19" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M19" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H20" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K20" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S20" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I21" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T21" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H22" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M22" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H23" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K23" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S23" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I24" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T24" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M25" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H26" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K26" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S26" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I27" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T27" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H28" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M28" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H29" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K29" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S29" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H30" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I30" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T30" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H31" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M31" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H32" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K32" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S32" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H33" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I33" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T33" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H34" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M34" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H35" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K35" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S35" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I36" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T36" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H37" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M37" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H38" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K38" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S38" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H39" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I39" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T39" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H40" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M40" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H41" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K41" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S41" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H42" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I42" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T42" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H43" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M43" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800087</v>
+        <v>0.468558113880008</v>
       </c>
       <c r="H44" t="n">
-        <v>4.79862078377364</v>
+        <v>4.798620783773633</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535905</v>
+        <v>18.06408668535903</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792342</v>
+        <v>39.76828421792337</v>
       </c>
       <c r="K44" t="n">
-        <v>59.6023491784642</v>
+        <v>59.60234917846412</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611954</v>
+        <v>73.94198455611942</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383313</v>
+        <v>82.27470491383302</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489471</v>
+        <v>83.6059956548946</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000038</v>
+        <v>78.94677091000025</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358765</v>
+        <v>67.37924247358755</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025982</v>
+        <v>50.59900502025975</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101512</v>
+        <v>29.43306362101508</v>
       </c>
       <c r="S44" t="n">
-        <v>10.67726802004071</v>
+        <v>10.67726802004069</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509739</v>
+        <v>2.051113143509736</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040069</v>
+        <v>0.03748464911040063</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236294</v>
+        <v>0.250700692723629</v>
       </c>
       <c r="H45" t="n">
-        <v>2.42124090077821</v>
+        <v>2.421240900778207</v>
       </c>
       <c r="I45" t="n">
-        <v>8.63158086789689</v>
+        <v>8.631580867896878</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017413</v>
+        <v>23.68571764017409</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265729</v>
+        <v>40.48266405265723</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983892</v>
+        <v>54.43393768983884</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107047</v>
+        <v>63.52183780107038</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253728</v>
+        <v>65.20307183253718</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271369</v>
+        <v>59.64807227271361</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579551</v>
+        <v>47.87283666579544</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328294</v>
+        <v>32.00172351328289</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770043</v>
+        <v>15.56543423770041</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897235</v>
+        <v>4.656655410897229</v>
       </c>
       <c r="T45" t="n">
-        <v>1.010499721986909</v>
+        <v>1.010499721986908</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655457</v>
+        <v>0.01649346662655455</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974054</v>
       </c>
       <c r="H46" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318751</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227438</v>
+        <v>6.320656924227428</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125658</v>
+        <v>14.85965807125656</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766222</v>
+        <v>24.41898291766218</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303976</v>
+        <v>31.24789097303971</v>
       </c>
       <c r="M46" t="n">
-        <v>32.94651975346241</v>
+        <v>32.94651975346237</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281756</v>
+        <v>32.16312515281751</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128422</v>
+        <v>29.70785183128418</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165713</v>
+        <v>25.42019943165709</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497546</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730619</v>
+        <v>9.450413889730607</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649332</v>
+        <v>3.662847437649327</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343694</v>
+        <v>0.8980377129343682</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01146431122894941</v>
+        <v>0.0114643112289494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.03930354485627</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>56.94174436914103</v>
       </c>
       <c r="L11" t="n">
-        <v>102.4460160557941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>115.1826340794632</v>
+        <v>115.1826340794631</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>112.056217792669</v>
       </c>
       <c r="P11" t="n">
-        <v>26.74489204655522</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005875</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982193</v>
+        <v>74.33405780982194</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688029</v>
+        <v>45.38482606688033</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.3911734308684</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.5660582938399</v>
+        <v>56.41707398622972</v>
       </c>
       <c r="R13" t="n">
-        <v>73.47343640942961</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485632</v>
+        <v>67.03930354485627</v>
       </c>
       <c r="J14" t="n">
-        <v>17.21809062139335</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>79.85245562834963</v>
       </c>
       <c r="L14" t="n">
-        <v>102.4460160557941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>115.1826340794633</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>112.056217792669</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522036</v>
+        <v>99.56667708522023</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.33405780982199</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688034</v>
+        <v>45.3848260668803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.39117343086833</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.39117343086827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>73.47343640942927</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.5660582938399</v>
+        <v>56.41707398622986</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35875,31 +35875,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.222581945281381</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>126.3043431123108</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>131.6224207170397</v>
+        <v>11.22898200964693</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>48.68631856617461</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="T20" t="n">
-        <v>48.68631856617478</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>77.61802454613606</v>
@@ -36349,28 +36349,28 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.222581945281381</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.22898200964691</v>
       </c>
       <c r="K23" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>126.3043431123108</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,10 +36382,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>131.6224207170395</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515243</v>
       </c>
       <c r="J26" t="n">
-        <v>101.7967481030761</v>
+        <v>321.6223478267719</v>
       </c>
       <c r="K26" t="n">
+        <v>89.90760651750276</v>
+      </c>
+      <c r="L26" t="n">
+        <v>91.51003370609016</v>
+      </c>
+      <c r="M26" t="n">
+        <v>43.36481334352496</v>
+      </c>
+      <c r="N26" t="n">
         <v>486.5906009745435</v>
       </c>
-      <c r="L26" t="n">
-        <v>91.51003370609027</v>
-      </c>
-      <c r="M26" t="n">
-        <v>479.4859839573563</v>
-      </c>
-      <c r="N26" t="n">
-        <v>106.3361427957499</v>
-      </c>
       <c r="O26" t="n">
-        <v>101.1202354429653</v>
+        <v>486.5906009745435</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>88.6306947355164</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1133811682311</v>
+        <v>79.10389331035486</v>
       </c>
       <c r="R26" t="n">
-        <v>114.1968865358307</v>
+        <v>148.8294212949953</v>
       </c>
       <c r="S26" t="n">
-        <v>34.44884371717648</v>
+        <v>34.44884371717647</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36647,10 +36647,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.30301295963707</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.714784690564677</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -36659,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>31.67728941080415</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.34050823939761</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.58708707257045</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.01418967170012</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.36260690215047</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>132.8712034985544</v>
       </c>
       <c r="M28" t="n">
-        <v>152.1318794783126</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>63.49934582187842</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.1033211951524</v>
+        <v>56.10332119515243</v>
       </c>
       <c r="J29" t="n">
         <v>101.7967481030761</v>
       </c>
       <c r="K29" t="n">
-        <v>302.1683815469316</v>
+        <v>89.90760651750276</v>
       </c>
       <c r="L29" t="n">
-        <v>486.5906009745435</v>
+        <v>486.5906009745432</v>
       </c>
       <c r="M29" t="n">
-        <v>486.5906009745435</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>106.3361427957499</v>
+        <v>106.3361427957498</v>
       </c>
       <c r="O29" t="n">
-        <v>101.1202354429652</v>
+        <v>486.5906009745432</v>
       </c>
       <c r="P29" t="n">
-        <v>88.63069473551644</v>
+        <v>88.6306947355164</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.08718681552199</v>
+        <v>355.113381168231</v>
       </c>
       <c r="R29" t="n">
-        <v>148.8294212949952</v>
+        <v>121.1842374146796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717642</v>
+        <v>34.44884371717647</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36893,7 +36893,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>55.01779765020194</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>55.01779765020177</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36963,13 +36963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.40844631554933</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>25.63998061955116</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.10788920645427</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>184.1810445915332</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.02472844997808</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>70.55211163105034</v>
+        <v>70.55211163105039</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515237</v>
+        <v>56.10332119515243</v>
       </c>
       <c r="J32" t="n">
         <v>321.6223478267719</v>
@@ -37072,28 +37072,28 @@
         <v>89.90760651750276</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51003370609018</v>
+        <v>91.51003370609016</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>104.2466517297593</v>
       </c>
       <c r="N32" t="n">
-        <v>449.6088344633487</v>
+        <v>224.9538708171324</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1202354429652</v>
+        <v>486.5906009745432</v>
       </c>
       <c r="P32" t="n">
-        <v>486.5906009745435</v>
+        <v>13.37609864881638</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.392278292503</v>
+        <v>355.113381168231</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011804</v>
+        <v>148.8294212949953</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717639</v>
+        <v>34.44884371717647</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.01779765020203</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>41.82735457809977</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>13.190443072102</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>58.36260690215047</v>
       </c>
       <c r="L34" t="n">
-        <v>254.7331562225838</v>
+        <v>44.58889714781689</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>151.7816521726158</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256771</v>
+        <v>97.75868019256777</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
@@ -37330,10 +37330,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459174</v>
+        <v>76.10420271459179</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771141</v>
+        <v>30.71937664771147</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>53.02500677474545</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>74.86868762166779</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>21.84368084692261</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>97.75868019256777</v>
       </c>
       <c r="J38" t="n">
-        <v>143.4521071004914</v>
+        <v>143.4521071004919</v>
       </c>
       <c r="K38" t="n">
         <v>131.5629655149181</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N38" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O38" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R38" t="n">
-        <v>105.0534344575339</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
         <v>76.10420271459179</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771146</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>74.86868762166779</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>74.86868762166789</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>143.4521071004914</v>
       </c>
       <c r="K41" t="n">
-        <v>131.5629655149181</v>
+        <v>131.562965514918</v>
       </c>
       <c r="L41" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035054</v>
       </c>
       <c r="M41" t="n">
         <v>145.9020107271746</v>
       </c>
       <c r="N41" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931651</v>
       </c>
       <c r="O41" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403804</v>
       </c>
       <c r="P41" t="n">
         <v>130.2860537329317</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077701</v>
       </c>
       <c r="R41" t="n">
-        <v>105.0534344575348</v>
+        <v>105.0534344575345</v>
       </c>
       <c r="S41" t="n">
         <v>76.10420271459174</v>
       </c>
       <c r="T41" t="n">
-        <v>30.7193766477114</v>
+        <v>30.71937664771142</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>74.86868762166806</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>97.75868019256771</v>
       </c>
       <c r="J44" t="n">
-        <v>143.4521071004926</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K44" t="n">
-        <v>131.5629655149181</v>
+        <v>131.562965514918</v>
       </c>
       <c r="L44" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035066</v>
       </c>
       <c r="M44" t="n">
         <v>145.9020107271746</v>
       </c>
       <c r="N44" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931651</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403804</v>
       </c>
       <c r="P44" t="n">
         <v>130.2860537329317</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077701</v>
       </c>
       <c r="R44" t="n">
         <v>105.0534344575334</v>
@@ -38044,7 +38044,7 @@
         <v>76.10420271459174</v>
       </c>
       <c r="T44" t="n">
-        <v>30.7193766477114</v>
+        <v>30.71937664771142</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>74.86868762166806</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
